--- a/ExecucoesGerais/novo__comparativo_AGEO2real2AAp3_e_AGEO2real1AA.xlsx
+++ b/ExecucoesGerais/novo__comparativo_AGEO2real2AAp3_e_AGEO2real1AA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7905" activeTab="5"/>
+    <workbookView windowWidth="13335" windowHeight="12360" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="18">
   <si>
     <t>NFE</t>
   </si>
   <si>
-    <t>AGEO2</t>
+    <t>AGEO2real1_P_AA</t>
   </si>
   <si>
-    <t>AGEO2var_5</t>
+    <t>AGEO2real2_P_AA_p3</t>
   </si>
   <si>
     <t>============================================================================</t>
   </si>
   <si>
-    <t>Função: Griewangk</t>
+    <t>Função: griewangk</t>
   </si>
   <si>
     <t>parameter</t>
@@ -45,7 +45,10 @@
     <t>meanFX</t>
   </si>
   <si>
-    <t>FXatual</t>
+    <t>melhorFX</t>
+  </si>
+  <si>
+    <t>piorFX</t>
   </si>
   <si>
     <t>medianFX</t>
@@ -54,22 +57,22 @@
     <t>sdFX</t>
   </si>
   <si>
-    <t>Execution Time: 358745 ms</t>
+    <t>Função: rastringin</t>
   </si>
   <si>
-    <t>Função: Rastringin</t>
+    <t>Função: rosenbrock</t>
   </si>
   <si>
-    <t>Função: Rosenbrock</t>
+    <t>Função: schwefel</t>
   </si>
   <si>
-    <t>Função: Schwefel</t>
+    <t>Função: ackley</t>
   </si>
   <si>
-    <t>Função: Ackley</t>
+    <t>Função: beale</t>
   </si>
   <si>
-    <t>Função: Beale</t>
+    <t>Execution Time: 110 s</t>
   </si>
 </sst>
 </file>
@@ -78,8 +81,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,6 +91,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,11 +117,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,9 +147,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,12 +179,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,25 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,19 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,16 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,13 +301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +349,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,127 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,15 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,6 +476,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,168 +538,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,7 +843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1005,121 +1008,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>296.849227253971</c:v>
+                  <c:v>293.476350829084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.231456992563</c:v>
+                  <c:v>265.054716566007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.422610845702</c:v>
+                  <c:v>228.581394919828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.079014362722</c:v>
+                  <c:v>14.7027494167102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.5843339783746</c:v>
+                  <c:v>1.17399572313539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.4558676078949</c:v>
+                  <c:v>0.978109951344687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.80808795319235</c:v>
+                  <c:v>0.920733736556275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.54523350866775</c:v>
+                  <c:v>0.892274539000699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.29451983537873</c:v>
+                  <c:v>0.857907721487329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55424918337125</c:v>
+                  <c:v>0.829617641781314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.13884329224093</c:v>
+                  <c:v>0.792712377426536</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.976359210860058</c:v>
+                  <c:v>0.755825031149625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.842575558634384</c:v>
+                  <c:v>0.733646477501646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.540308166177123</c:v>
+                  <c:v>0.693040251739346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.378059467252712</c:v>
+                  <c:v>0.63314218615272</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.322233200976345</c:v>
+                  <c:v>0.61043530469191</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.299226183195222</c:v>
+                  <c:v>0.570910793508771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.276692906767896</c:v>
+                  <c:v>0.56532240180841</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25336039941399</c:v>
+                  <c:v>0.555240336679834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24650052145943</c:v>
+                  <c:v>0.52325678849103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24125272247461</c:v>
+                  <c:v>0.512327240013827</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.232278894533267</c:v>
+                  <c:v>0.50381821808647</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.222852322078901</c:v>
+                  <c:v>0.48297161259272</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.199379336414424</c:v>
+                  <c:v>0.451496494276531</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.181758679152534</c:v>
+                  <c:v>0.431219186252581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.167618997720927</c:v>
+                  <c:v>0.41368743795176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.15269248389856</c:v>
+                  <c:v>0.403198006376726</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.141888313080846</c:v>
+                  <c:v>0.395622727169957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.134911045039692</c:v>
+                  <c:v>0.386796394010125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.127941349124853</c:v>
+                  <c:v>0.37849398790486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.125579931715308</c:v>
+                  <c:v>0.373021591011477</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.105817544329371</c:v>
+                  <c:v>0.367917783356319</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.101578939910454</c:v>
+                  <c:v>0.359402898707771</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0938309998093461</c:v>
+                  <c:v>0.353059360797468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0863563808017405</c:v>
+                  <c:v>0.349850356080392</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0863563808017405</c:v>
+                  <c:v>0.33840164923909</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0863563808017405</c:v>
+                  <c:v>0.333474784754702</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0863563808017405</c:v>
+                  <c:v>0.331125678053515</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0840617728547263</c:v>
+                  <c:v>0.328657549171446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,121 +1309,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>252.03565830569</c:v>
+                  <c:v>278.197025231474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.452571037238</c:v>
+                  <c:v>253.583768081046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211.245339546321</c:v>
+                  <c:v>248.55524321689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.2708589359189</c:v>
+                  <c:v>193.91918247751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.96650240021349</c:v>
+                  <c:v>97.1766919771138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.561190278017216</c:v>
+                  <c:v>42.1108048818503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.280441618867484</c:v>
+                  <c:v>11.7231843341244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.233259468609272</c:v>
+                  <c:v>1.77090283396461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.224947646560063</c:v>
+                  <c:v>0.513865126038339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.222166849806351</c:v>
+                  <c:v>0.304999616822144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.213921582664713</c:v>
+                  <c:v>0.161216156557232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.199082157089598</c:v>
+                  <c:v>0.0791795012627523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.182650139508713</c:v>
+                  <c:v>0.0588470273632697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.173787848302195</c:v>
+                  <c:v>0.0417320560157641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.148101785467793</c:v>
+                  <c:v>0.038569340734219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.136631971441385</c:v>
+                  <c:v>0.0352303712190857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.116477171957949</c:v>
+                  <c:v>0.0341926092517425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.102636001377601</c:v>
+                  <c:v>0.0334041261147528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0927389250437745</c:v>
+                  <c:v>0.0309773564022072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0891082010180338</c:v>
+                  <c:v>0.0294283577224954</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0853103457106762</c:v>
+                  <c:v>0.0257037852397266</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0766194992472467</c:v>
+                  <c:v>0.0256805602789602</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0747004332725131</c:v>
+                  <c:v>0.0252861721112758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0502766420350188</c:v>
+                  <c:v>0.0233230492605112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0446725739869912</c:v>
+                  <c:v>0.0218945938281869</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0383161170007732</c:v>
+                  <c:v>0.0211058141101553</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0347243572396581</c:v>
+                  <c:v>0.0210074134384686</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0240460866866198</c:v>
+                  <c:v>0.0209586795298003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0214157974411043</c:v>
+                  <c:v>0.0195059969663292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0193706257207783</c:v>
+                  <c:v>0.0177664901753526</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0182851758139117</c:v>
+                  <c:v>0.0174271349440463</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0169430107211476</c:v>
+                  <c:v>0.0165324483892783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.016598252984609</c:v>
+                  <c:v>0.0158432064625207</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0165446197696863</c:v>
+                  <c:v>0.0137724060297383</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0138384296496075</c:v>
+                  <c:v>0.0136804926596122</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0124969851984675</c:v>
+                  <c:v>0.0132380131358419</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0115481062896226</c:v>
+                  <c:v>0.0130905297740844</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0115481062896226</c:v>
+                  <c:v>0.0129429499893879</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.010503563986998</c:v>
+                  <c:v>0.0129429499890197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,9 +1623,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
+          <c:x val="0.622685185185185"/>
           <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
+          <c:w val="0.351851851851852"/>
           <c:h val="0.308101851851852"/>
         </c:manualLayout>
       </c:layout>
@@ -1770,7 +1773,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1935,121 +1938,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>233.858879177775</c:v>
+                  <c:v>226.126508615065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226.980607017288</c:v>
+                  <c:v>218.845931317365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.293262757353</c:v>
+                  <c:v>211.833606148084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214.772486038531</c:v>
+                  <c:v>143.676409837366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197.278031636961</c:v>
+                  <c:v>111.479373210356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.697453526044</c:v>
+                  <c:v>97.1638151706561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.033708883953</c:v>
+                  <c:v>86.7001695717981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129.066781073387</c:v>
+                  <c:v>80.2160462982998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.907480071093</c:v>
+                  <c:v>73.4694796271841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.3017186786444</c:v>
+                  <c:v>70.7105414975501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.0014682513035</c:v>
+                  <c:v>69.1432402574603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.4104850296582</c:v>
+                  <c:v>66.0540819570501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.8683642624195</c:v>
+                  <c:v>61.9323729363802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.2705345390221</c:v>
+                  <c:v>55.569843804655</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.7017158582553</c:v>
+                  <c:v>50.4579353203732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.953730598076</c:v>
+                  <c:v>42.3773815152213</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.571861212359</c:v>
+                  <c:v>36.6062200929795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.7631809763569</c:v>
+                  <c:v>30.8136140996356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.562703354622</c:v>
+                  <c:v>22.7140933196512</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.4110215815519</c:v>
+                  <c:v>18.9599859257219</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.9630331003003</c:v>
+                  <c:v>15.9394093743394</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.6375936444479</c:v>
+                  <c:v>14.3602068915074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.5565929035908</c:v>
+                  <c:v>13.7771617184307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.4888713963635</c:v>
+                  <c:v>11.336742262067</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.4766286353427</c:v>
+                  <c:v>10.2051306739957</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.3722319905878</c:v>
+                  <c:v>9.00006707449788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.9812295437446</c:v>
+                  <c:v>8.15439474064261</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.4321196372229</c:v>
+                  <c:v>7.36069324872553</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.6992720250006</c:v>
+                  <c:v>6.70532701244267</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.4743872181762</c:v>
+                  <c:v>6.28158746451639</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.1305445128233</c:v>
+                  <c:v>6.16467065969209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.9185498122093</c:v>
+                  <c:v>6.05045787280621</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.740181737302</c:v>
+                  <c:v>5.81826056871425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.6620756005533</c:v>
+                  <c:v>5.76435595256277</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.565058895639</c:v>
+                  <c:v>5.71280815263418</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.1882981442759</c:v>
+                  <c:v>5.58731778866433</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.952181104047</c:v>
+                  <c:v>5.3545338911248</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15.7216183379976</c:v>
+                  <c:v>5.15352167756081</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.5555114974157</c:v>
+                  <c:v>5.12138105726734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2236,121 +2239,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>226.899798936471</c:v>
+                  <c:v>223.971425454599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.538286547697</c:v>
+                  <c:v>215.098906919494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217.987554732452</c:v>
+                  <c:v>215.098906919494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.797155503063</c:v>
+                  <c:v>194.633910203502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.139144757217</c:v>
+                  <c:v>156.956522285211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.0535411861772</c:v>
+                  <c:v>124.171432225884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.7690143951238</c:v>
+                  <c:v>85.1628346560134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.3275261937888</c:v>
+                  <c:v>55.6065630203753</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.3767425657421</c:v>
+                  <c:v>40.2707414087076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.2892454418126</c:v>
+                  <c:v>22.6826455349832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.2819371065706</c:v>
+                  <c:v>11.9238594882738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.2812028432757</c:v>
+                  <c:v>9.34016071592731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.2809792790685</c:v>
+                  <c:v>7.11132288927986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.2809267992663</c:v>
+                  <c:v>4.61180917777841</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.2808849338388</c:v>
+                  <c:v>3.22626037753924</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.7295749483675</c:v>
+                  <c:v>2.40398742415553</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.6418362699038</c:v>
+                  <c:v>1.8035029703627</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.7815761118265</c:v>
+                  <c:v>1.14924965503371</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.618926528914</c:v>
+                  <c:v>0.720599371447378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.4436127449654</c:v>
+                  <c:v>0.352157381447001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.9142086591144</c:v>
+                  <c:v>0.163728036798902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.7790849916886</c:v>
+                  <c:v>0.11394490349186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.4979511456671</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.8620127589824</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.0798492994389</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.1436226485459</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.5078213552467</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.5415028531752</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.0119227373172</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.6520845605121</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.2290270844729</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.1558361226923</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.8234181831272</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.4909304839103</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.4907057517609</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.3200042927247</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.1601592227569</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.920297968826</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.7460329297719</c:v>
+                  <c:v>0.0393608667042883</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="0.00E+00">
+                  <c:v>8.07288373039227e-9</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="0.00E+00">
+                  <c:v>5.53086465515662e-13</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="0.00E+00">
+                  <c:v>4.82884843222564e-13</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="0.00E+00">
+                  <c:v>4.59579041489632e-13</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="0.00E+00">
+                  <c:v>4.36557456851005e-13</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="0.00E+00">
+                  <c:v>4.06146227760473e-13</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="0.00E+00">
+                  <c:v>3.94351218346855e-13</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="0.00E+00">
+                  <c:v>3.86535248253494e-13</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="0.00E+00">
+                  <c:v>3.76019215764245e-13</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="0.00E+00">
+                  <c:v>3.64934749086387e-13</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="0.00E+00">
+                  <c:v>3.62092578143347e-13</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="0.00E+00">
+                  <c:v>3.52571305484161e-13</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="0.00E+00">
+                  <c:v>3.4688696359808e-13</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="0.00E+00">
+                  <c:v>3.4191316444776e-13</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="0.00E+00">
+                  <c:v>3.38644667863263e-13</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="0.00E+00">
+                  <c:v>3.31823457599966e-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,8 +2460,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="10"/>
+          <c:max val="10000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2536,6 +2538,7 @@
         <c:crossAx val="357432052"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2551,9 +2554,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
+          <c:x val="0.608796296296296"/>
           <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
+          <c:w val="0.365740740740741"/>
           <c:h val="0.308101851851852"/>
         </c:manualLayout>
       </c:layout>
@@ -2699,7 +2702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2864,121 +2867,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>104.776203491913</c:v>
+                  <c:v>343.816748402983</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00E+00">
-                  <c:v>13.9167292808206</c:v>
+                  <c:v>78.4104384032422</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00E+00">
-                  <c:v>3.30335146682708</c:v>
+                  <c:v>14.6148350550557</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00E+00">
-                  <c:v>0.6501883773275</c:v>
+                  <c:v>0.532975252774792</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00E+00">
-                  <c:v>0.515704292780833</c:v>
+                  <c:v>0.268751266260895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.251164613347292</c:v>
+                  <c:v>0.118778763795973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22427265916</c:v>
+                  <c:v>0.066426250088508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.205274459892291</c:v>
+                  <c:v>0.0550845918795659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.157058325995208</c:v>
+                  <c:v>0.0538990201132794</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.121145707605833</c:v>
+                  <c:v>0.0536970970772924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0732780914985416</c:v>
+                  <c:v>0.0531731226547222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.057098604595</c:v>
+                  <c:v>0.0529685003712281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.051558893941875</c:v>
+                  <c:v>0.0468792320879987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0196965841289584</c:v>
+                  <c:v>0.046683811736293</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0134988447989583</c:v>
+                  <c:v>0.0464176912847808</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0119652255091667</c:v>
+                  <c:v>0.0451509050456614</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0115123073989584</c:v>
+                  <c:v>0.0013395100705134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00914644860604171</c:v>
+                  <c:v>0.0013338385827649</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0048188095435417</c:v>
+                  <c:v>0.000975500601213773</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00210194000041665</c:v>
+                  <c:v>0.00069444565523552</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00192969186999998</c:v>
+                  <c:v>0.000682900678055249</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00188904241999998</c:v>
+                  <c:v>0.000600698933556044</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.000648406736666648</c:v>
+                  <c:v>0.00048864665173138</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000327112892916661</c:v>
+                  <c:v>0.000317253677296985</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.000180895895833333</c:v>
+                  <c:v>0.000264717947400747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000177325012500002</c:v>
+                  <c:v>0.000251084234516786</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000165677829166669</c:v>
+                  <c:v>0.000240679707537312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000163530579166668</c:v>
+                  <c:v>0.000215543858956162</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000104126232916675</c:v>
+                  <c:v>0.000184102517640087</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="0.00E+00">
-                  <c:v>8.37412029166748e-5</c:v>
+                  <c:v>0.000152650078877609</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="0.00E+00">
-                  <c:v>7.53817297916776e-5</c:v>
+                  <c:v>0.000145624984149498</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="0.00E+00">
-                  <c:v>7.49781297916771e-5</c:v>
+                  <c:v>0.00013913459820244</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="0.00E+00">
-                  <c:v>7.1722083125007e-5</c:v>
+                  <c:v>0.000133776367290994</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="0.00E+00">
-                  <c:v>6.92786966666736e-5</c:v>
+                  <c:v>0.000122836931261114</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="0.00E+00">
-                  <c:v>5.77662831250046e-5</c:v>
+                  <c:v>0.000117838611505756</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="0.00E+00">
-                  <c:v>5.4473436250005e-5</c:v>
+                  <c:v>0.000117838611505756</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="0.00E+00">
-                  <c:v>4.66535560416718e-5</c:v>
+                  <c:v>0.000108443189187912</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="0.00E+00">
-                  <c:v>4.60893393750074e-5</c:v>
+                  <c:v>0.000103264986041742</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="0.00E+00">
-                  <c:v>4.5793202916674e-5</c:v>
+                  <c:v>0.000103143781080585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,7 +2997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3165,121 +3168,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>67.3521258316564</c:v>
+                  <c:v>187.584849867758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.25219608517291</c:v>
+                  <c:v>103.374244351361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.67697497574937</c:v>
+                  <c:v>34.0647552670307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.704948145150417</c:v>
+                  <c:v>1.25132558033416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.395125430680208</c:v>
+                  <c:v>1.13047722626822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.294883704130416</c:v>
+                  <c:v>0.775657820143176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.160584047407291</c:v>
+                  <c:v>0.534868409693614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.158146162433958</c:v>
+                  <c:v>0.513346942278998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.120071541740416</c:v>
+                  <c:v>0.315255310601707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.115854883400625</c:v>
+                  <c:v>0.299727114735656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.115145306173958</c:v>
+                  <c:v>0.176309572880407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.101501080734166</c:v>
+                  <c:v>0.160541021605065</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0936237510270834</c:v>
+                  <c:v>0.151523243355478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0456830414733334</c:v>
+                  <c:v>0.136182404769086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00902228893666671</c:v>
+                  <c:v>0.123133890979964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00357806891354167</c:v>
+                  <c:v>0.112819152153276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00338898902708334</c:v>
+                  <c:v>0.103483660192408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00309916023041667</c:v>
+                  <c:v>0.0959750856479596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00149687144708333</c:v>
+                  <c:v>0.0833470346123072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000593648277083331</c:v>
+                  <c:v>0.0736424390653883</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000521821493750002</c:v>
+                  <c:v>0.0662097967941474</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000473052410416665</c:v>
+                  <c:v>0.059890533263439</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.000465874523749997</c:v>
+                  <c:v>0.0545162373494068</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000276237216458352</c:v>
+                  <c:v>0.0438870159709129</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.000152884422916683</c:v>
+                  <c:v>0.0362480055696967</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000127150769583348</c:v>
+                  <c:v>0.0301631611750851</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="0.00E+00">
-                  <c:v>9.83872595833482e-5</c:v>
+                  <c:v>0.0254661851681538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="0.00E+00">
-                  <c:v>8.67060262500111e-5</c:v>
+                  <c:v>0.021531633744507</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="0.00E+00">
-                  <c:v>8.02400160416759e-5</c:v>
+                  <c:v>0.0184022586987131</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="0.00E+00">
-                  <c:v>7.73524929166694e-5</c:v>
+                  <c:v>0.0158447769399825</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="0.00E+00">
-                  <c:v>7.24748731250024e-5</c:v>
+                  <c:v>0.013679762701047</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="0.00E+00">
-                  <c:v>7.24748731250024e-5</c:v>
+                  <c:v>0.011826387300695</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="0.00E+00">
-                  <c:v>6.89068895833364e-5</c:v>
+                  <c:v>0.0102165422555082</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="0.00E+00">
-                  <c:v>6.64635031250035e-5</c:v>
+                  <c:v>0.00889855909393542</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="0.00E+00">
-                  <c:v>6.52420895833365e-5</c:v>
+                  <c:v>0.00780070663916057</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="0.00E+00">
-                  <c:v>6.03887062500036e-5</c:v>
+                  <c:v>0.00682446470812493</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="0.00E+00">
-                  <c:v>5.94846562500034e-5</c:v>
+                  <c:v>0.00596385797944143</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="0.00E+00">
-                  <c:v>5.55179531250001e-5</c:v>
+                  <c:v>0.00522870238179884</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="0.00E+00">
-                  <c:v>5.41035895833336e-5</c:v>
+                  <c:v>0.00459337325944006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,9 +3482,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
+          <c:x val="0.622685185185185"/>
           <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
+          <c:w val="0.351851851851852"/>
           <c:h val="0.308101851851852"/>
         </c:manualLayout>
       </c:layout>
@@ -3627,7 +3630,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3792,121 +3795,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3869.70597534074</c:v>
+                  <c:v>3936.54511284277</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00E+00">
-                  <c:v>3662.32191064626</c:v>
+                  <c:v>3455.04060735828</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00E+00">
-                  <c:v>3514.03760840349</c:v>
+                  <c:v>2986.72022616366</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00E+00">
-                  <c:v>3169.59285439873</c:v>
+                  <c:v>1929.2543464739</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00E+00">
-                  <c:v>2421.65441473878</c:v>
+                  <c:v>1845.53147753408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1813.77927308821</c:v>
+                  <c:v>1767.75820723733</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1438.44811440844</c:v>
+                  <c:v>1713.58761984729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1175.64344813239</c:v>
+                  <c:v>1694.78213026992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1046.65346236667</c:v>
+                  <c:v>1667.6829944943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>978.34020086666</c:v>
+                  <c:v>1599.42300369044</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>940.218875890431</c:v>
+                  <c:v>1571.69943694456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>918.276466064875</c:v>
+                  <c:v>1527.61579735388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>908.954495734227</c:v>
+                  <c:v>1496.01135395282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>899.176532713925</c:v>
+                  <c:v>1461.65151163523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>896.957051730967</c:v>
+                  <c:v>1435.34675126302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>896.207943850722</c:v>
+                  <c:v>1415.81784384407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>888.116741649762</c:v>
+                  <c:v>1367.06901022522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>884.816996744017</c:v>
+                  <c:v>1336.78581114021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>875.228566467851</c:v>
+                  <c:v>1270.92579486912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>854.642452272672</c:v>
+                  <c:v>1252.43055632738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>823.037813456851</c:v>
+                  <c:v>1226.07172890926</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>815.234865235108</c:v>
+                  <c:v>1165.28891804594</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>796.675580802723</c:v>
+                  <c:v>1120.22284537094</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>767.227880320855</c:v>
+                  <c:v>1054.13784821599</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>750.966840088121</c:v>
+                  <c:v>1004.15881712286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>734.587535937058</c:v>
+                  <c:v>971.064041413132</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>708.92522388905</c:v>
+                  <c:v>925.175768022512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>672.067223117936</c:v>
+                  <c:v>903.532957210655</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>653.470086316332</c:v>
+                  <c:v>878.161040205031</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="0.00E+00">
-                  <c:v>625.549877141705</c:v>
+                  <c:v>851.601358247779</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="0.00E+00">
-                  <c:v>595.779203437223</c:v>
+                  <c:v>842.852111180821</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="0.00E+00">
-                  <c:v>568.94433361182</c:v>
+                  <c:v>828.007277865071</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="0.00E+00">
-                  <c:v>555.420877011075</c:v>
+                  <c:v>804.957718933175</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="0.00E+00">
-                  <c:v>535.017634053028</c:v>
+                  <c:v>796.435727874307</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="0.00E+00">
-                  <c:v>509.935046854255</c:v>
+                  <c:v>768.097101749826</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="0.00E+00">
-                  <c:v>495.5570726249</c:v>
+                  <c:v>756.076450263519</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="0.00E+00">
-                  <c:v>485.286917848659</c:v>
+                  <c:v>747.686399208002</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="0.00E+00">
-                  <c:v>472.614719651857</c:v>
+                  <c:v>736.982452819482</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="0.00E+00">
-                  <c:v>468.094168697147</c:v>
+                  <c:v>721.259986832247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,7 +3925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4093,121 +4096,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3983.91846919556</c:v>
+                  <c:v>4047.94049745797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3739.53513106026</c:v>
+                  <c:v>3788.88009881096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3644.89876385362</c:v>
+                  <c:v>3762.88756570741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2256.70570933174</c:v>
+                  <c:v>3029.42114987387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1240.29876162666</c:v>
+                  <c:v>1939.61912489106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>970.569498904978</c:v>
+                  <c:v>1106.78355048763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>938.991667955595</c:v>
+                  <c:v>807.709155324906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>931.941820803519</c:v>
+                  <c:v>625.328078919771</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>914.856658072912</c:v>
+                  <c:v>514.609476604888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>886.992054425316</c:v>
+                  <c:v>446.248014804773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>859.473975317547</c:v>
+                  <c:v>384.933385662401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>840.56600796097</c:v>
+                  <c:v>359.750362251232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>821.513323420348</c:v>
+                  <c:v>343.836407282235</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>778.481757084165</c:v>
+                  <c:v>309.336494956596</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>752.771189359563</c:v>
+                  <c:v>290.850980325628</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>728.020011949987</c:v>
+                  <c:v>273.394451448959</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>673.278432198804</c:v>
+                  <c:v>254.196478215324</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>665.981123765363</c:v>
+                  <c:v>240.193068217852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>657.718848691778</c:v>
+                  <c:v>224.801591425023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>637.951755974844</c:v>
+                  <c:v>194.727441131921</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>609.821679153128</c:v>
+                  <c:v>171.857572239012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>592.893066629997</c:v>
+                  <c:v>153.941390093802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>535.796496982554</c:v>
+                  <c:v>137.314506969653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>479.418934821908</c:v>
+                  <c:v>112.145857726865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>421.533651440024</c:v>
+                  <c:v>93.0098488202482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>409.220879657331</c:v>
+                  <c:v>71.690829942929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>395.120260305485</c:v>
+                  <c:v>51.7972419004093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>384.077395845856</c:v>
+                  <c:v>45.0761565368347</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>368.737675724208</c:v>
+                  <c:v>40.5337240342835</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>348.236817599694</c:v>
+                  <c:v>37.900394352289</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>340.045988527301</c:v>
+                  <c:v>33.1681198478209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>329.483508192213</c:v>
+                  <c:v>28.6514435688519</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>318.155214881557</c:v>
+                  <c:v>26.2826768768912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>316.644567474022</c:v>
+                  <c:v>16.8076122267034</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>313.34644314803</c:v>
+                  <c:v>16.8076101074061</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>308.638668525951</c:v>
+                  <c:v>14.4388434151175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>299.89098270432</c:v>
+                  <c:v>14.4388434151173</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>288.375713223797</c:v>
+                  <c:v>9.47519406723208</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>280.482923303247</c:v>
+                  <c:v>9.47519404482132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,7 +4317,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4407,9 +4409,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
+          <c:x val="0.613425925925926"/>
           <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
+          <c:w val="0.361111111111111"/>
           <c:h val="0.308101851851852"/>
         </c:manualLayout>
       </c:layout>
@@ -4555,7 +4557,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4720,121 +4722,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>20.9720574657065</c:v>
+                  <c:v>20.935240800822</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00E+00">
-                  <c:v>20.922772245041</c:v>
+                  <c:v>20.8680576444994</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00E+00">
-                  <c:v>20.9048811744854</c:v>
+                  <c:v>20.8121501385233</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00E+00">
-                  <c:v>20.868769249579</c:v>
+                  <c:v>20.0365123044799</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00E+00">
-                  <c:v>20.8052270339565</c:v>
+                  <c:v>19.3291512520911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.7117923042575</c:v>
+                  <c:v>18.8823610257168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.5831117747568</c:v>
+                  <c:v>18.3389452487205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.4064623867027</c:v>
+                  <c:v>17.8031813598294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.2358928525306</c:v>
+                  <c:v>17.1861640243284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0156447429486</c:v>
+                  <c:v>16.5807713131501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.7605775496395</c:v>
+                  <c:v>15.828096743915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.4777148125148</c:v>
+                  <c:v>14.9050652145719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.184312299076</c:v>
+                  <c:v>13.8909372124102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.512763182116</c:v>
+                  <c:v>12.079272426977</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.7190683019881</c:v>
+                  <c:v>10.6175621887911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.9165399384992</c:v>
+                  <c:v>9.61379922623119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0365840699596</c:v>
+                  <c:v>8.73817027372094</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.149887858024</c:v>
+                  <c:v>8.02052826135684</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.4492716864108</c:v>
+                  <c:v>7.15483521555824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.8028577885933</c:v>
+                  <c:v>6.13206524935143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.5055442118602</c:v>
+                  <c:v>4.95208096242462</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.30085991881963</c:v>
+                  <c:v>3.75352494027922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2588315052986</c:v>
+                  <c:v>2.63490672420243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.02310262093636</c:v>
+                  <c:v>1.46463268903183</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.44831235696685</c:v>
+                  <c:v>1.1621736960402</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.42563991856524</c:v>
+                  <c:v>0.863679911895871</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.47578107383633</c:v>
+                  <c:v>0.491818704105377</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.78316168807117</c:v>
+                  <c:v>0.384476860236273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.31572206915059</c:v>
+                  <c:v>0.35925276354842</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="0.00E+00">
-                  <c:v>1.01814218787105</c:v>
+                  <c:v>0.32447814408718</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="0.00E+00">
-                  <c:v>0.862728425338376</c:v>
+                  <c:v>0.311713238126003</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="0.00E+00">
-                  <c:v>0.731147933440228</c:v>
+                  <c:v>0.306111331130398</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="0.00E+00">
-                  <c:v>0.696600252179196</c:v>
+                  <c:v>0.274243894060768</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="0.00E+00">
-                  <c:v>0.67638573020135</c:v>
+                  <c:v>0.267538257295873</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="0.00E+00">
-                  <c:v>0.664941609857072</c:v>
+                  <c:v>0.263844962556703</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="0.00E+00">
-                  <c:v>0.658566085870451</c:v>
+                  <c:v>0.259030373979903</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="0.00E+00">
-                  <c:v>0.655266562012385</c:v>
+                  <c:v>0.23989741476506</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="0.00E+00">
-                  <c:v>0.653186942674689</c:v>
+                  <c:v>0.226711291258072</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="0.00E+00">
-                  <c:v>0.651227877303414</c:v>
+                  <c:v>0.220396277209189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4850,7 +4852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5021,121 +5023,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>20.9374074028465</c:v>
+                  <c:v>20.962402570621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.89622303015</c:v>
+                  <c:v>20.8931439505737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.8832665765849</c:v>
+                  <c:v>20.8917351891562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.4974973238529</c:v>
+                  <c:v>20.8241856041001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.4954375986072</c:v>
+                  <c:v>20.5887398017943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.8108915016022</c:v>
+                  <c:v>20.2617583757022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.8895655384775</c:v>
+                  <c:v>19.67749322189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.1034312253569</c:v>
+                  <c:v>19.4255958322847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.84184789486741</c:v>
+                  <c:v>18.5680217185579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6107702257378</c:v>
+                  <c:v>17.4586424571008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.33381449692123</c:v>
+                  <c:v>16.0793352045741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.66219076243648</c:v>
+                  <c:v>14.3475204971995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.97371604852685</c:v>
+                  <c:v>13.0948309542917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.54880690606333</c:v>
+                  <c:v>8.95592221582872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4967007256871</c:v>
+                  <c:v>5.81413698146254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.49451974414101</c:v>
+                  <c:v>4.12981583676571</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.49317237376003</c:v>
+                  <c:v>2.65875985275451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.49061930062502</c:v>
+                  <c:v>1.98916928630616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.49046069089097</c:v>
+                  <c:v>0.997561111813837</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4536838484188</c:v>
+                  <c:v>0.374267081910422</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.37047925663141</c:v>
+                  <c:v>0.0690645151381765</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.33457991457051</c:v>
+                  <c:v>0.0171680372397338</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.32258310153431</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.26739688819852</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.19953813523286</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.16426875245262</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.08554678184014</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.08019405153782</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.00963075843614</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.982227438347901</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.975532759459168</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.913372602765555</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.906227607667906</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.8523768190071</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.851843269812269</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.81110554737842</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.807687135064496</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.807687135064496</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.744419314900723</c:v>
+                  <c:v>0.00131081649623581</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="0.00E+00">
+                  <c:v>3.15989535934591e-6</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="0.00E+00">
+                  <c:v>6.11509386274633e-7</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="0.00E+00">
+                  <c:v>5.35754972617041e-7</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="0.00E+00">
+                  <c:v>5.03917271785781e-7</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="0.00E+00">
+                  <c:v>4.98539812952003e-7</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="0.00E+00">
+                  <c:v>4.94552152972005e-7</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="0.00E+00">
+                  <c:v>4.90067088989576e-7</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="0.00E+00">
+                  <c:v>4.84742957311823e-7</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="0.00E+00">
+                  <c:v>4.7717632497779e-7</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="0.00E+00">
+                  <c:v>4.72918689879975e-7</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="0.00E+00">
+                  <c:v>4.70017496851937e-7</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="0.00E+00">
+                  <c:v>4.62269583678676e-7</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="0.00E+00">
+                  <c:v>4.57443691885828e-7</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="0.00E+00">
+                  <c:v>4.53570882612552e-7</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="0.00E+00">
+                  <c:v>4.49763883381137e-7</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="0.00E+00">
+                  <c:v>4.46378233220912e-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,9 +5337,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
-          <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
+          <c:x val="0.625"/>
+          <c:y val="0.0275462962962963"/>
+          <c:w val="0.347222222222222"/>
           <c:h val="0.308101851851852"/>
         </c:manualLayout>
       </c:layout>
@@ -5483,7 +5485,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2</c:v>
+                  <c:v>AGEO2real1_P_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5648,121 +5650,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>278.540637222689</c:v>
+                  <c:v>2597.52295362738</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00E+00">
-                  <c:v>7.18267764815989</c:v>
+                  <c:v>75.767427377142</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00E+00">
-                  <c:v>3.06995259328969</c:v>
+                  <c:v>8.69862570179392</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00E+00">
-                  <c:v>0.698171757667516</c:v>
+                  <c:v>0.289202959603025</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00E+00">
-                  <c:v>0.350991520034867</c:v>
+                  <c:v>0.181444542627693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28335590746812</c:v>
+                  <c:v>0.12352110160388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.153048227447592</c:v>
+                  <c:v>0.0368063687579864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.142022085030349</c:v>
+                  <c:v>0.0349041398448015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13382158376608</c:v>
+                  <c:v>0.0336682107065496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11462859967788</c:v>
+                  <c:v>0.0178276980662969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.114451922524672</c:v>
+                  <c:v>0.0025695276197833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.101716942506558</c:v>
+                  <c:v>0.00251375444775225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0997415465219874</c:v>
+                  <c:v>0.00246761824732803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.092191902466809</c:v>
+                  <c:v>0.00215834946236928</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0634277993836967</c:v>
+                  <c:v>0.00185180445837139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0560471373170448</c:v>
+                  <c:v>0.00174818616048768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0560471373170448</c:v>
+                  <c:v>0.000434265871212907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0554373808930189</c:v>
+                  <c:v>0.000399465502859024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0304632427843863</c:v>
+                  <c:v>0.000209052346865029</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0281859896459616</c:v>
+                  <c:v>0.000142836158107518</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0270690777643001</c:v>
+                  <c:v>0.000134925924784096</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0268672815954269</c:v>
+                  <c:v>0.000134522549577788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0251644577182244</c:v>
+                  <c:v>0.000122354451487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.024281644093379</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0233901879914954</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.023365910809834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0231472705060308</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0228540911767478</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0227512567312438</c:v>
+                  <c:v>0.000107942464580594</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="0.00E+00">
+                  <c:v>7.57529026608859e-5</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="0.00E+00">
+                  <c:v>6.89094489991924e-5</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="0.00E+00">
+                  <c:v>5.9901119368447e-5</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="0.00E+00">
+                  <c:v>5.20454755821881e-5</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="0.00E+00">
+                  <c:v>4.23916547858892e-5</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="0.00E+00">
-                  <c:v>0.0227357044058512</c:v>
+                  <c:v>3.77247050520568e-5</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="0.00E+00">
-                  <c:v>0.0227006429572573</c:v>
+                  <c:v>3.48897054491049e-5</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="0.00E+00">
-                  <c:v>0.0227006429572573</c:v>
+                  <c:v>3.32677755700553e-5</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="0.00E+00">
-                  <c:v>0.0226741344891562</c:v>
+                  <c:v>3.237257370496e-5</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="0.00E+00">
-                  <c:v>0.0226741344891562</c:v>
+                  <c:v>3.15107781354346e-5</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="0.00E+00">
-                  <c:v>0.0226739044255143</c:v>
+                  <c:v>2.97678231680345e-5</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="0.00E+00">
-                  <c:v>0.0226739044255143</c:v>
+                  <c:v>2.57157386417681e-5</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="0.00E+00">
-                  <c:v>0.0226739044255143</c:v>
+                  <c:v>2.47867149905036e-5</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="0.00E+00">
-                  <c:v>0.0226634056490624</c:v>
+                  <c:v>2.47867149905036e-5</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="0.00E+00">
-                  <c:v>0.0226582962189574</c:v>
+                  <c:v>2.45062962711605e-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5778,7 +5780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2var_5</c:v>
+                  <c:v>AGEO2real2_P_AA_p3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5949,121 +5951,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>532.219616022656</c:v>
+                  <c:v>553.688400859821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.68517205506138</c:v>
+                  <c:v>266.263081301799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.92498087391738</c:v>
+                  <c:v>54.2354615970519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.913692728642571</c:v>
+                  <c:v>1.46420184649222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.569016046850113</c:v>
+                  <c:v>0.850283703235508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.407638728423917</c:v>
+                  <c:v>0.754078067727807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.334789201264261</c:v>
+                  <c:v>0.722399264900423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.249814687161766</c:v>
+                  <c:v>0.595626776517332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.181996622582329</c:v>
+                  <c:v>0.492720089031585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1781316708985</c:v>
+                  <c:v>0.476461567437192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.120361066930048</c:v>
+                  <c:v>0.46382401882571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11402284898429</c:v>
+                  <c:v>0.454732151409009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0974879122165328</c:v>
+                  <c:v>0.446174717971786</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0737452305008883</c:v>
+                  <c:v>0.427015823929881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0411563111690723</c:v>
+                  <c:v>0.411677815546324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0317850865319493</c:v>
+                  <c:v>0.400765838481891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0313878430732181</c:v>
+                  <c:v>0.372578767339579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0115258874515185</c:v>
+                  <c:v>0.364436505304294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0103828664933683</c:v>
+                  <c:v>0.35370141843118</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00891890562408375</c:v>
+                  <c:v>0.165580615303446</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00875435157803008</c:v>
+                  <c:v>0.156766915737381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00604447121486247</c:v>
+                  <c:v>0.153564445173277</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00509519584072996</c:v>
+                  <c:v>0.123815017997723</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00426995247868278</c:v>
+                  <c:v>0.0970360812400215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00310540050405335</c:v>
+                  <c:v>0.0767433478829648</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00208124786280879</c:v>
+                  <c:v>0.0610343471841507</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00200036539377556</c:v>
+                  <c:v>0.0459958430107535</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00100927905315727</c:v>
+                  <c:v>0.0335380159520354</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000985142821608248</c:v>
+                  <c:v>0.018309897736917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00080860127135773</c:v>
+                  <c:v>0.0183063299498359</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.000585890539301531</c:v>
+                  <c:v>0.00307837103246265</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.000494042431269608</c:v>
+                  <c:v>0.00307466501020762</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.000480809039745232</c:v>
+                  <c:v>0.00307466450134901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00044873289657446</c:v>
+                  <c:v>0.00307466173965469</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.000400772394705883</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.000400772394705883</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.000389836563451008</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.000383723668423885</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.000117880494477845</c:v>
+                  <c:v>0.00307466164228795</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="0.00E+00">
+                  <c:v>3.12660991449767e-5</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="0.00E+00">
+                  <c:v>3.63529461033841e-8</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="0.00E+00">
+                  <c:v>3.73930043082258e-10</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="0.00E+00">
+                  <c:v>3.68545197155092e-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6263,10 +6265,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.729938271604938"/>
-          <c:y val="0.0240740740740741"/>
-          <c:w val="0.244598765432099"/>
-          <c:h val="0.308101851851852"/>
+          <c:x val="0.6259987707437"/>
+          <c:y val="0.0240341419586703"/>
+          <c:w val="0.348494161032575"/>
+          <c:h val="0.308176100628931"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11648,8 +11650,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C40" sqref="A1:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11673,10 +11675,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>296.849227253971</v>
+        <v>293.476350829084</v>
       </c>
       <c r="C2" s="1">
-        <v>252.03565830569</v>
+        <v>278.197025231474</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11684,10 +11686,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>272.231456992563</v>
+        <v>265.054716566007</v>
       </c>
       <c r="C3" s="1">
-        <v>220.452571037238</v>
+        <v>253.583768081046</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11695,10 +11697,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>257.422610845702</v>
+        <v>228.581394919828</v>
       </c>
       <c r="C4" s="1">
-        <v>211.245339546321</v>
+        <v>248.55524321689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11706,10 +11708,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="1">
-        <v>193.079014362722</v>
+        <v>14.7027494167102</v>
       </c>
       <c r="C5" s="1">
-        <v>58.2708589359189</v>
+        <v>193.91918247751</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11717,10 +11719,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="1">
-        <v>82.5843339783746</v>
+        <v>1.17399572313539</v>
       </c>
       <c r="C6" s="1">
-        <v>5.96650240021349</v>
+        <v>97.1766919771138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11728,10 +11730,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>26.4558676078949</v>
+        <v>0.978109951344687</v>
       </c>
       <c r="C7" s="1">
-        <v>0.561190278017216</v>
+        <v>42.1108048818503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11739,10 +11741,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>9.80808795319235</v>
+        <v>0.920733736556275</v>
       </c>
       <c r="C8" s="1">
-        <v>0.280441618867484</v>
+        <v>11.7231843341244</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11750,10 +11752,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>4.54523350866775</v>
+        <v>0.892274539000699</v>
       </c>
       <c r="C9" s="1">
-        <v>0.233259468609272</v>
+        <v>1.77090283396461</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11761,10 +11763,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>2.29451983537873</v>
+        <v>0.857907721487329</v>
       </c>
       <c r="C10" s="1">
-        <v>0.224947646560063</v>
+        <v>0.513865126038339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11772,10 +11774,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>1.55424918337125</v>
+        <v>0.829617641781314</v>
       </c>
       <c r="C11" s="1">
-        <v>0.222166849806351</v>
+        <v>0.304999616822144</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11783,10 +11785,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>1.13884329224093</v>
+        <v>0.792712377426536</v>
       </c>
       <c r="C12" s="1">
-        <v>0.213921582664713</v>
+        <v>0.161216156557232</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11794,10 +11796,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>0.976359210860058</v>
+        <v>0.755825031149625</v>
       </c>
       <c r="C13" s="1">
-        <v>0.199082157089598</v>
+        <v>0.0791795012627523</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11805,10 +11807,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>0.842575558634384</v>
+        <v>0.733646477501646</v>
       </c>
       <c r="C14" s="1">
-        <v>0.182650139508713</v>
+        <v>0.0588470273632697</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11816,10 +11818,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>0.540308166177123</v>
+        <v>0.693040251739346</v>
       </c>
       <c r="C15" s="1">
-        <v>0.173787848302195</v>
+        <v>0.0417320560157641</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11827,10 +11829,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>0.378059467252712</v>
+        <v>0.63314218615272</v>
       </c>
       <c r="C16" s="1">
-        <v>0.148101785467793</v>
+        <v>0.038569340734219</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11838,10 +11840,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>0.322233200976345</v>
+        <v>0.61043530469191</v>
       </c>
       <c r="C17" s="1">
-        <v>0.136631971441385</v>
+        <v>0.0352303712190857</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11849,10 +11851,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>0.299226183195222</v>
+        <v>0.570910793508771</v>
       </c>
       <c r="C18" s="1">
-        <v>0.116477171957949</v>
+        <v>0.0341926092517425</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11860,10 +11862,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>0.276692906767896</v>
+        <v>0.56532240180841</v>
       </c>
       <c r="C19" s="1">
-        <v>0.102636001377601</v>
+        <v>0.0334041261147528</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11871,10 +11873,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>0.25336039941399</v>
+        <v>0.555240336679834</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0927389250437745</v>
+        <v>0.0309773564022072</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11882,10 +11884,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>0.24650052145943</v>
+        <v>0.52325678849103</v>
       </c>
       <c r="C21" s="1">
-        <v>0.0891082010180338</v>
+        <v>0.0294283577224954</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11893,10 +11895,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>0.24125272247461</v>
+        <v>0.512327240013827</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0853103457106762</v>
+        <v>0.0257037852397266</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11904,10 +11906,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>0.232278894533267</v>
+        <v>0.50381821808647</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0766194992472467</v>
+        <v>0.0256805602789602</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11915,10 +11917,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.222852322078901</v>
+        <v>0.48297161259272</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0747004332725131</v>
+        <v>0.0252861721112758</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11926,10 +11928,10 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>0.199379336414424</v>
+        <v>0.451496494276531</v>
       </c>
       <c r="C25" s="1">
-        <v>0.0502766420350188</v>
+        <v>0.0233230492605112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11937,10 +11939,10 @@
         <v>30000</v>
       </c>
       <c r="B26" s="1">
-        <v>0.181758679152534</v>
+        <v>0.431219186252581</v>
       </c>
       <c r="C26" s="1">
-        <v>0.0446725739869912</v>
+        <v>0.0218945938281869</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11948,10 +11950,10 @@
         <v>35000</v>
       </c>
       <c r="B27" s="1">
-        <v>0.167618997720927</v>
+        <v>0.41368743795176</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0383161170007732</v>
+        <v>0.0211058141101553</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11959,10 +11961,10 @@
         <v>40000</v>
       </c>
       <c r="B28" s="1">
-        <v>0.15269248389856</v>
+        <v>0.403198006376726</v>
       </c>
       <c r="C28" s="1">
-        <v>0.0347243572396581</v>
+        <v>0.0210074134384686</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11970,10 +11972,10 @@
         <v>45000</v>
       </c>
       <c r="B29" s="1">
-        <v>0.141888313080846</v>
+        <v>0.395622727169957</v>
       </c>
       <c r="C29" s="1">
-        <v>0.0240460866866198</v>
+        <v>0.0209586795298003</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11981,10 +11983,10 @@
         <v>50000</v>
       </c>
       <c r="B30" s="1">
-        <v>0.134911045039692</v>
+        <v>0.386796394010125</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0214157974411043</v>
+        <v>0.0195059969663292</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11992,10 +11994,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="1">
-        <v>0.127941349124853</v>
+        <v>0.37849398790486</v>
       </c>
       <c r="C31" s="1">
-        <v>0.0193706257207783</v>
+        <v>0.0177664901753526</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12003,10 +12005,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="1">
-        <v>0.125579931715308</v>
+        <v>0.373021591011477</v>
       </c>
       <c r="C32" s="1">
-        <v>0.0182851758139117</v>
+        <v>0.0174271349440463</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12014,10 +12016,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="1">
-        <v>0.105817544329371</v>
+        <v>0.367917783356319</v>
       </c>
       <c r="C33" s="1">
-        <v>0.0169430107211476</v>
+        <v>0.0165324483892783</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12025,10 +12027,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="1">
-        <v>0.101578939910454</v>
+        <v>0.359402898707771</v>
       </c>
       <c r="C34" s="1">
-        <v>0.016598252984609</v>
+        <v>0.0158432064625207</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -12036,10 +12038,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="1">
-        <v>0.0938309998093461</v>
+        <v>0.353059360797468</v>
       </c>
       <c r="C35" s="1">
-        <v>0.0165446197696863</v>
+        <v>0.0137724060297383</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -12047,10 +12049,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0863563808017405</v>
+        <v>0.349850356080392</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0138384296496075</v>
+        <v>0.0136804926596122</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -12058,10 +12060,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="1">
-        <v>0.0863563808017405</v>
+        <v>0.33840164923909</v>
       </c>
       <c r="C37" s="1">
-        <v>0.0124969851984675</v>
+        <v>0.0132380131358419</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -12069,10 +12071,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="1">
-        <v>0.0863563808017405</v>
+        <v>0.333474784754702</v>
       </c>
       <c r="C38" s="1">
-        <v>0.0115481062896226</v>
+        <v>0.0130905297740844</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -12080,10 +12082,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="1">
-        <v>0.0863563808017405</v>
+        <v>0.331125678053515</v>
       </c>
       <c r="C39" s="1">
-        <v>0.0115481062896226</v>
+        <v>0.0129429499893879</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -12091,10 +12093,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="1">
-        <v>0.0840617728547263</v>
+        <v>0.328657549171446</v>
       </c>
       <c r="C40" s="1">
-        <v>0.010503563986998</v>
+        <v>0.0129429499890197</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -12158,10 +12160,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100100</v>
+        <v>100001</v>
       </c>
       <c r="C62" s="1">
-        <v>100100</v>
+        <v>100089</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12175,10 +12177,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>0.0840215419819855</v>
+        <v>0.328657549171446</v>
       </c>
       <c r="C63" s="1">
-        <v>0.010432895364358</v>
+        <v>0.0129429499890197</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -12192,10 +12194,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="1">
-        <v>0.0840215419819855</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.010432895364358</v>
+        <v>0.136357059115682</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5.10036457512796e-13</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -12209,10 +12211,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="1">
-        <v>0.0721896224340562</v>
+        <v>0.508031409164595</v>
       </c>
       <c r="C65" s="1">
-        <v>0.00585886714605943</v>
+        <v>0.046714726219758</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -12226,10 +12228,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="1">
-        <v>0.0665025154430137</v>
+        <v>0.325371923054655</v>
       </c>
       <c r="C66" s="1">
-        <v>0.0159802342398043</v>
+        <v>0.00986467206647989</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -12239,9 +12241,15 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.0896178880580877</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.0125854906626655</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -12250,9 +12258,7 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -12272,10 +12278,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12299,10 +12305,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>233.858879177775</v>
+        <v>226.126508615065</v>
       </c>
       <c r="C2" s="1">
-        <v>226.899798936471</v>
+        <v>223.971425454599</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12310,10 +12316,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>226.980607017288</v>
+        <v>218.845931317365</v>
       </c>
       <c r="C3" s="1">
-        <v>220.538286547697</v>
+        <v>215.098906919494</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12321,10 +12327,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>223.293262757353</v>
+        <v>211.833606148084</v>
       </c>
       <c r="C4" s="1">
-        <v>217.987554732452</v>
+        <v>215.098906919494</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12332,10 +12338,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="1">
-        <v>214.772486038531</v>
+        <v>143.676409837366</v>
       </c>
       <c r="C5" s="1">
-        <v>183.797155503063</v>
+        <v>194.633910203502</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12343,10 +12349,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="1">
-        <v>197.278031636961</v>
+        <v>111.479373210356</v>
       </c>
       <c r="C6" s="1">
-        <v>77.139144757217</v>
+        <v>156.956522285211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12354,10 +12360,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>177.697453526044</v>
+        <v>97.1638151706561</v>
       </c>
       <c r="C7" s="1">
-        <v>48.0535411861772</v>
+        <v>124.171432225884</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -12365,10 +12371,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>149.033708883953</v>
+        <v>86.7001695717981</v>
       </c>
       <c r="C8" s="1">
-        <v>29.7690143951238</v>
+        <v>85.1628346560134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12376,10 +12382,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>129.066781073387</v>
+        <v>80.2160462982998</v>
       </c>
       <c r="C9" s="1">
-        <v>25.3275261937888</v>
+        <v>55.6065630203753</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12387,10 +12393,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>104.907480071093</v>
+        <v>73.4694796271841</v>
       </c>
       <c r="C10" s="1">
-        <v>24.3767425657421</v>
+        <v>40.2707414087076</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12398,10 +12404,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>92.3017186786444</v>
+        <v>70.7105414975501</v>
       </c>
       <c r="C11" s="1">
-        <v>24.2892454418126</v>
+        <v>22.6826455349832</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12409,10 +12415,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>77.0014682513035</v>
+        <v>69.1432402574603</v>
       </c>
       <c r="C12" s="1">
-        <v>24.2819371065706</v>
+        <v>11.9238594882738</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12420,10 +12426,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>67.4104850296582</v>
+        <v>66.0540819570501</v>
       </c>
       <c r="C13" s="1">
-        <v>24.2812028432757</v>
+        <v>9.34016071592731</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -12431,10 +12437,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>58.8683642624195</v>
+        <v>61.9323729363802</v>
       </c>
       <c r="C14" s="1">
-        <v>24.2809792790685</v>
+        <v>7.11132288927986</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -12442,10 +12448,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>46.2705345390221</v>
+        <v>55.569843804655</v>
       </c>
       <c r="C15" s="1">
-        <v>24.2809267992663</v>
+        <v>4.61180917777841</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12453,10 +12459,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>37.7017158582553</v>
+        <v>50.4579353203732</v>
       </c>
       <c r="C16" s="1">
-        <v>24.2808849338388</v>
+        <v>3.22626037753924</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -12464,10 +12470,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>31.953730598076</v>
+        <v>42.3773815152213</v>
       </c>
       <c r="C17" s="1">
-        <v>23.7295749483675</v>
+        <v>2.40398742415553</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12475,10 +12481,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>27.571861212359</v>
+        <v>36.6062200929795</v>
       </c>
       <c r="C18" s="1">
-        <v>21.6418362699038</v>
+        <v>1.8035029703627</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12486,10 +12492,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>24.7631809763569</v>
+        <v>30.8136140996356</v>
       </c>
       <c r="C19" s="1">
-        <v>20.7815761118265</v>
+        <v>1.14924965503371</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -12497,10 +12503,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>21.562703354622</v>
+        <v>22.7140933196512</v>
       </c>
       <c r="C20" s="1">
-        <v>19.618926528914</v>
+        <v>0.720599371447378</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -12508,10 +12514,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>20.4110215815519</v>
+        <v>18.9599859257219</v>
       </c>
       <c r="C21" s="1">
-        <v>19.4436127449654</v>
+        <v>0.352157381447001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -12519,10 +12525,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>19.9630331003003</v>
+        <v>15.9394093743394</v>
       </c>
       <c r="C22" s="1">
-        <v>18.9142086591144</v>
+        <v>0.163728036798902</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -12530,10 +12536,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>19.6375936444479</v>
+        <v>14.3602068915074</v>
       </c>
       <c r="C23" s="1">
-        <v>18.7790849916886</v>
+        <v>0.11394490349186</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12541,10 +12547,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>19.5565929035908</v>
+        <v>13.7771617184307</v>
       </c>
       <c r="C24" s="1">
-        <v>18.4979511456671</v>
+        <v>0.0393608667042883</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -12552,10 +12558,10 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>19.4888713963635</v>
-      </c>
-      <c r="C25" s="1">
-        <v>17.8620127589824</v>
+        <v>11.336742262067</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.07288373039227e-9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -12563,10 +12569,10 @@
         <v>30000</v>
       </c>
       <c r="B26" s="1">
-        <v>19.4766286353427</v>
-      </c>
-      <c r="C26" s="1">
-        <v>17.0798492994389</v>
+        <v>10.2051306739957</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.53086465515662e-13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -12574,10 +12580,10 @@
         <v>35000</v>
       </c>
       <c r="B27" s="1">
-        <v>19.3722319905878</v>
-      </c>
-      <c r="C27" s="1">
-        <v>16.1436226485459</v>
+        <v>9.00006707449788</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.82884843222564e-13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -12585,10 +12591,10 @@
         <v>40000</v>
       </c>
       <c r="B28" s="1">
-        <v>18.9812295437446</v>
-      </c>
-      <c r="C28" s="1">
-        <v>15.5078213552467</v>
+        <v>8.15439474064261</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.59579041489632e-13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -12596,10 +12602,10 @@
         <v>45000</v>
       </c>
       <c r="B29" s="1">
-        <v>18.4321196372229</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14.5415028531752</v>
+        <v>7.36069324872553</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.36557456851005e-13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -12607,10 +12613,10 @@
         <v>50000</v>
       </c>
       <c r="B30" s="1">
-        <v>17.6992720250006</v>
-      </c>
-      <c r="C30" s="1">
-        <v>14.0119227373172</v>
+        <v>6.70532701244267</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.06146227760473e-13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -12618,10 +12624,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="1">
-        <v>17.4743872181762</v>
-      </c>
-      <c r="C31" s="1">
-        <v>13.6520845605121</v>
+        <v>6.28158746451639</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.94351218346855e-13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12629,10 +12635,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="1">
-        <v>17.1305445128233</v>
-      </c>
-      <c r="C32" s="1">
-        <v>13.2290270844729</v>
+        <v>6.16467065969209</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.86535248253494e-13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12640,10 +12646,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="1">
-        <v>16.9185498122093</v>
-      </c>
-      <c r="C33" s="1">
-        <v>13.1558361226923</v>
+        <v>6.05045787280621</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.76019215764245e-13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12651,10 +12657,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="1">
-        <v>16.740181737302</v>
-      </c>
-      <c r="C34" s="1">
-        <v>12.8234181831272</v>
+        <v>5.81826056871425</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.64934749086387e-13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -12662,10 +12668,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="1">
-        <v>16.6620756005533</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12.4909304839103</v>
+        <v>5.76435595256277</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.62092578143347e-13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -12673,10 +12679,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="1">
-        <v>16.565058895639</v>
-      </c>
-      <c r="C36" s="1">
-        <v>12.4907057517609</v>
+        <v>5.71280815263418</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.52571305484161e-13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -12684,10 +12690,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="1">
-        <v>16.1882981442759</v>
-      </c>
-      <c r="C37" s="1">
-        <v>12.3200042927247</v>
+        <v>5.58731778866433</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.4688696359808e-13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -12695,10 +12701,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="1">
-        <v>15.952181104047</v>
-      </c>
-      <c r="C38" s="1">
-        <v>12.1601592227569</v>
+        <v>5.3545338911248</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.4191316444776e-13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -12706,10 +12712,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="1">
-        <v>15.7216183379976</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11.920297968826</v>
+        <v>5.15352167756081</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.38644667863263e-13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -12717,10 +12723,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="1">
-        <v>15.5555114974157</v>
-      </c>
-      <c r="C40" s="1">
-        <v>11.7460329297719</v>
+        <v>5.12138105726734</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3.31823457599966e-13</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -12784,10 +12790,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100160</v>
+        <v>100002</v>
       </c>
       <c r="C62" s="1">
-        <v>100160</v>
+        <v>100170</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12801,10 +12807,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>15.5554837689604</v>
-      </c>
-      <c r="C63" s="1">
-        <v>11.7460159133689</v>
+        <v>5.12138105726734</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.31823457599966e-13</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -12818,10 +12824,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="1">
-        <v>15.5554837689604</v>
-      </c>
-      <c r="C64" s="1">
-        <v>11.7460159133689</v>
+        <v>1.0949645553402</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.1316282072803e-13</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -12835,10 +12841,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="1">
-        <v>16.1130696595693</v>
-      </c>
-      <c r="C65" s="1">
-        <v>11.9929466843799</v>
+        <v>10.1331448641023</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5.11590769747272e-13</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -12852,10 +12858,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="1">
-        <v>4.73095405645884</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2.44282355007675</v>
+        <v>4.96266706666396</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3.19744231092045e-13</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -12863,6 +12869,17 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>1.78084791497261</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6.59438222309698e-14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12874,10 +12891,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:I66"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12901,10 +12918,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>104.776203491913</v>
+        <v>343.816748402983</v>
       </c>
       <c r="C2" s="1">
-        <v>67.3521258316564</v>
+        <v>187.584849867758</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12912,10 +12929,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>13.9167292808206</v>
+        <v>78.4104384032422</v>
       </c>
       <c r="C3" s="1">
-        <v>5.25219608517291</v>
+        <v>103.374244351361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12923,10 +12940,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>3.30335146682708</v>
+        <v>14.6148350550557</v>
       </c>
       <c r="C4" s="1">
-        <v>1.67697497574937</v>
+        <v>34.0647552670307</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12934,10 +12951,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="2">
-        <v>0.6501883773275</v>
+        <v>0.532975252774792</v>
       </c>
       <c r="C5" s="1">
-        <v>0.704948145150417</v>
+        <v>1.25132558033416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12945,10 +12962,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="2">
-        <v>0.515704292780833</v>
+        <v>0.268751266260895</v>
       </c>
       <c r="C6" s="1">
-        <v>0.395125430680208</v>
+        <v>1.13047722626822</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12956,10 +12973,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>0.251164613347292</v>
+        <v>0.118778763795973</v>
       </c>
       <c r="C7" s="1">
-        <v>0.294883704130416</v>
+        <v>0.775657820143176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -12967,10 +12984,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>0.22427265916</v>
+        <v>0.066426250088508</v>
       </c>
       <c r="C8" s="1">
-        <v>0.160584047407291</v>
+        <v>0.534868409693614</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12978,10 +12995,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>0.205274459892291</v>
+        <v>0.0550845918795659</v>
       </c>
       <c r="C9" s="1">
-        <v>0.158146162433958</v>
+        <v>0.513346942278998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12989,10 +13006,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>0.157058325995208</v>
+        <v>0.0538990201132794</v>
       </c>
       <c r="C10" s="1">
-        <v>0.120071541740416</v>
+        <v>0.315255310601707</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13000,10 +13017,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>0.121145707605833</v>
+        <v>0.0536970970772924</v>
       </c>
       <c r="C11" s="1">
-        <v>0.115854883400625</v>
+        <v>0.299727114735656</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13011,10 +13028,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0732780914985416</v>
+        <v>0.0531731226547222</v>
       </c>
       <c r="C12" s="1">
-        <v>0.115145306173958</v>
+        <v>0.176309572880407</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13022,10 +13039,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>0.057098604595</v>
+        <v>0.0529685003712281</v>
       </c>
       <c r="C13" s="1">
-        <v>0.101501080734166</v>
+        <v>0.160541021605065</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13033,10 +13050,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>0.051558893941875</v>
+        <v>0.0468792320879987</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0936237510270834</v>
+        <v>0.151523243355478</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13044,10 +13061,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0196965841289584</v>
+        <v>0.046683811736293</v>
       </c>
       <c r="C15" s="1">
-        <v>0.0456830414733334</v>
+        <v>0.136182404769086</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13055,10 +13072,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0134988447989583</v>
+        <v>0.0464176912847808</v>
       </c>
       <c r="C16" s="1">
-        <v>0.00902228893666671</v>
+        <v>0.123133890979964</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13066,10 +13083,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0119652255091667</v>
+        <v>0.0451509050456614</v>
       </c>
       <c r="C17" s="1">
-        <v>0.00357806891354167</v>
+        <v>0.112819152153276</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13077,10 +13094,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0115123073989584</v>
+        <v>0.0013395100705134</v>
       </c>
       <c r="C18" s="1">
-        <v>0.00338898902708334</v>
+        <v>0.103483660192408</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13088,10 +13105,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>0.00914644860604171</v>
+        <v>0.0013338385827649</v>
       </c>
       <c r="C19" s="1">
-        <v>0.00309916023041667</v>
+        <v>0.0959750856479596</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13099,10 +13116,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0048188095435417</v>
+        <v>0.000975500601213773</v>
       </c>
       <c r="C20" s="1">
-        <v>0.00149687144708333</v>
+        <v>0.0833470346123072</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13110,10 +13127,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>0.00210194000041665</v>
+        <v>0.00069444565523552</v>
       </c>
       <c r="C21" s="1">
-        <v>0.000593648277083331</v>
+        <v>0.0736424390653883</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13121,10 +13138,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>0.00192969186999998</v>
+        <v>0.000682900678055249</v>
       </c>
       <c r="C22" s="1">
-        <v>0.000521821493750002</v>
+        <v>0.0662097967941474</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13132,10 +13149,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>0.00188904241999998</v>
+        <v>0.000600698933556044</v>
       </c>
       <c r="C23" s="1">
-        <v>0.000473052410416665</v>
+        <v>0.059890533263439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13143,10 +13160,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.000648406736666648</v>
+        <v>0.00048864665173138</v>
       </c>
       <c r="C24" s="1">
-        <v>0.000465874523749997</v>
+        <v>0.0545162373494068</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13154,10 +13171,10 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>0.000327112892916661</v>
+        <v>0.000317253677296985</v>
       </c>
       <c r="C25" s="1">
-        <v>0.000276237216458352</v>
+        <v>0.0438870159709129</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13165,10 +13182,10 @@
         <v>30000</v>
       </c>
       <c r="B26" s="1">
-        <v>0.000180895895833333</v>
+        <v>0.000264717947400747</v>
       </c>
       <c r="C26" s="1">
-        <v>0.000152884422916683</v>
+        <v>0.0362480055696967</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13176,10 +13193,10 @@
         <v>35000</v>
       </c>
       <c r="B27" s="1">
-        <v>0.000177325012500002</v>
+        <v>0.000251084234516786</v>
       </c>
       <c r="C27" s="1">
-        <v>0.000127150769583348</v>
+        <v>0.0301631611750851</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13187,10 +13204,10 @@
         <v>40000</v>
       </c>
       <c r="B28" s="1">
-        <v>0.000165677829166669</v>
+        <v>0.000240679707537312</v>
       </c>
       <c r="C28" s="2">
-        <v>9.83872595833482e-5</v>
+        <v>0.0254661851681538</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13198,10 +13215,10 @@
         <v>45000</v>
       </c>
       <c r="B29" s="1">
-        <v>0.000163530579166668</v>
+        <v>0.000215543858956162</v>
       </c>
       <c r="C29" s="2">
-        <v>8.67060262500111e-5</v>
+        <v>0.021531633744507</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13209,10 +13226,10 @@
         <v>50000</v>
       </c>
       <c r="B30" s="1">
-        <v>0.000104126232916675</v>
+        <v>0.000184102517640087</v>
       </c>
       <c r="C30" s="2">
-        <v>8.02400160416759e-5</v>
+        <v>0.0184022586987131</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13220,10 +13237,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="2">
-        <v>8.37412029166748e-5</v>
+        <v>0.000152650078877609</v>
       </c>
       <c r="C31" s="2">
-        <v>7.73524929166694e-5</v>
+        <v>0.0158447769399825</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13231,10 +13248,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="2">
-        <v>7.53817297916776e-5</v>
+        <v>0.000145624984149498</v>
       </c>
       <c r="C32" s="2">
-        <v>7.24748731250024e-5</v>
+        <v>0.013679762701047</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13242,10 +13259,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="2">
-        <v>7.49781297916771e-5</v>
+        <v>0.00013913459820244</v>
       </c>
       <c r="C33" s="2">
-        <v>7.24748731250024e-5</v>
+        <v>0.011826387300695</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13253,10 +13270,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="2">
-        <v>7.1722083125007e-5</v>
+        <v>0.000133776367290994</v>
       </c>
       <c r="C34" s="2">
-        <v>6.89068895833364e-5</v>
+        <v>0.0102165422555082</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13264,10 +13281,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="2">
-        <v>6.92786966666736e-5</v>
+        <v>0.000122836931261114</v>
       </c>
       <c r="C35" s="2">
-        <v>6.64635031250035e-5</v>
+        <v>0.00889855909393542</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13275,10 +13292,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="2">
-        <v>5.77662831250046e-5</v>
+        <v>0.000117838611505756</v>
       </c>
       <c r="C36" s="2">
-        <v>6.52420895833365e-5</v>
+        <v>0.00780070663916057</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13286,10 +13303,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="2">
-        <v>5.4473436250005e-5</v>
+        <v>0.000117838611505756</v>
       </c>
       <c r="C37" s="2">
-        <v>6.03887062500036e-5</v>
+        <v>0.00682446470812493</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13297,10 +13314,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="2">
-        <v>4.66535560416718e-5</v>
+        <v>0.000108443189187912</v>
       </c>
       <c r="C38" s="2">
-        <v>5.94846562500034e-5</v>
+        <v>0.00596385797944143</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13308,10 +13325,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="2">
-        <v>4.60893393750074e-5</v>
+        <v>0.000103264986041742</v>
       </c>
       <c r="C39" s="2">
-        <v>5.55179531250001e-5</v>
+        <v>0.00522870238179884</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13319,10 +13336,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="2">
-        <v>4.5793202916674e-5</v>
+        <v>0.000103143781080585</v>
       </c>
       <c r="C40" s="2">
-        <v>5.41035895833336e-5</v>
+        <v>0.00459337325944006</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13386,10 +13403,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100022</v>
+        <v>100002</v>
       </c>
       <c r="C62" s="1">
-        <v>100022</v>
+        <v>100008</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -13403,10 +13420,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="2">
-        <v>4.5793202916674e-5</v>
+        <v>0.000103143781080585</v>
       </c>
       <c r="C63" s="2">
-        <v>5.41035895833336e-5</v>
+        <v>0.00459185374616253</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -13420,10 +13437,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>4.5793202916674e-5</v>
+        <v>2.833546511044e-6</v>
       </c>
       <c r="C64" s="2">
-        <v>5.41035895833336e-5</v>
+        <v>6.08758506544371e-7</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -13437,10 +13454,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="2">
-        <v>2.52250062500133e-5</v>
+        <v>0.000567206720412131</v>
       </c>
       <c r="C65" s="2">
-        <v>3.61296000000008e-5</v>
+        <v>0.0364849746916239</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -13454,10 +13471,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="2">
-        <v>4.58584235198375e-5</v>
+        <v>6.88266197531242e-5</v>
       </c>
       <c r="C66" s="2">
-        <v>5.99351570440738e-5</v>
+        <v>0.00185995284200962</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -13465,6 +13482,17 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>0.000113973591180096</v>
+      </c>
+      <c r="C67">
+        <v>0.00790437148190593</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13476,10 +13504,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13503,10 +13531,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>3869.70597534074</v>
+        <v>3936.54511284277</v>
       </c>
       <c r="C2" s="1">
-        <v>3983.91846919556</v>
+        <v>4047.94049745797</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13514,10 +13542,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>3662.32191064626</v>
+        <v>3455.04060735828</v>
       </c>
       <c r="C3" s="1">
-        <v>3739.53513106026</v>
+        <v>3788.88009881096</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13525,10 +13553,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>3514.03760840349</v>
+        <v>2986.72022616366</v>
       </c>
       <c r="C4" s="1">
-        <v>3644.89876385362</v>
+        <v>3762.88756570741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13536,10 +13564,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="2">
-        <v>3169.59285439873</v>
+        <v>1929.2543464739</v>
       </c>
       <c r="C5" s="1">
-        <v>2256.70570933174</v>
+        <v>3029.42114987387</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13547,10 +13575,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="2">
-        <v>2421.65441473878</v>
+        <v>1845.53147753408</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.29876162666</v>
+        <v>1939.61912489106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13558,10 +13586,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>1813.77927308821</v>
+        <v>1767.75820723733</v>
       </c>
       <c r="C7" s="1">
-        <v>970.569498904978</v>
+        <v>1106.78355048763</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13569,10 +13597,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>1438.44811440844</v>
+        <v>1713.58761984729</v>
       </c>
       <c r="C8" s="1">
-        <v>938.991667955595</v>
+        <v>807.709155324906</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13580,10 +13608,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>1175.64344813239</v>
+        <v>1694.78213026992</v>
       </c>
       <c r="C9" s="1">
-        <v>931.941820803519</v>
+        <v>625.328078919771</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13591,10 +13619,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>1046.65346236667</v>
+        <v>1667.6829944943</v>
       </c>
       <c r="C10" s="1">
-        <v>914.856658072912</v>
+        <v>514.609476604888</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13602,10 +13630,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>978.34020086666</v>
+        <v>1599.42300369044</v>
       </c>
       <c r="C11" s="1">
-        <v>886.992054425316</v>
+        <v>446.248014804773</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13613,10 +13641,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>940.218875890431</v>
+        <v>1571.69943694456</v>
       </c>
       <c r="C12" s="1">
-        <v>859.473975317547</v>
+        <v>384.933385662401</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13624,10 +13652,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>918.276466064875</v>
+        <v>1527.61579735388</v>
       </c>
       <c r="C13" s="1">
-        <v>840.56600796097</v>
+        <v>359.750362251232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13635,10 +13663,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>908.954495734227</v>
+        <v>1496.01135395282</v>
       </c>
       <c r="C14" s="1">
-        <v>821.513323420348</v>
+        <v>343.836407282235</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13646,10 +13674,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>899.176532713925</v>
+        <v>1461.65151163523</v>
       </c>
       <c r="C15" s="1">
-        <v>778.481757084165</v>
+        <v>309.336494956596</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13657,10 +13685,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>896.957051730967</v>
+        <v>1435.34675126302</v>
       </c>
       <c r="C16" s="1">
-        <v>752.771189359563</v>
+        <v>290.850980325628</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13668,10 +13696,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>896.207943850722</v>
+        <v>1415.81784384407</v>
       </c>
       <c r="C17" s="1">
-        <v>728.020011949987</v>
+        <v>273.394451448959</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13679,10 +13707,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>888.116741649762</v>
+        <v>1367.06901022522</v>
       </c>
       <c r="C18" s="1">
-        <v>673.278432198804</v>
+        <v>254.196478215324</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13690,10 +13718,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>884.816996744017</v>
+        <v>1336.78581114021</v>
       </c>
       <c r="C19" s="1">
-        <v>665.981123765363</v>
+        <v>240.193068217852</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13701,10 +13729,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>875.228566467851</v>
+        <v>1270.92579486912</v>
       </c>
       <c r="C20" s="1">
-        <v>657.718848691778</v>
+        <v>224.801591425023</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13712,10 +13740,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>854.642452272672</v>
+        <v>1252.43055632738</v>
       </c>
       <c r="C21" s="1">
-        <v>637.951755974844</v>
+        <v>194.727441131921</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13723,10 +13751,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>823.037813456851</v>
+        <v>1226.07172890926</v>
       </c>
       <c r="C22" s="1">
-        <v>609.821679153128</v>
+        <v>171.857572239012</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13734,10 +13762,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>815.234865235108</v>
+        <v>1165.28891804594</v>
       </c>
       <c r="C23" s="1">
-        <v>592.893066629997</v>
+        <v>153.941390093802</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13745,10 +13773,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>796.675580802723</v>
+        <v>1120.22284537094</v>
       </c>
       <c r="C24" s="1">
-        <v>535.796496982554</v>
+        <v>137.314506969653</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13756,10 +13784,10 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>767.227880320855</v>
+        <v>1054.13784821599</v>
       </c>
       <c r="C25" s="1">
-        <v>479.418934821908</v>
+        <v>112.145857726865</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13767,10 +13795,10 @@
         <v>30000</v>
       </c>
       <c r="B26" s="1">
-        <v>750.966840088121</v>
+        <v>1004.15881712286</v>
       </c>
       <c r="C26" s="1">
-        <v>421.533651440024</v>
+        <v>93.0098488202482</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13778,10 +13806,10 @@
         <v>35000</v>
       </c>
       <c r="B27" s="1">
-        <v>734.587535937058</v>
+        <v>971.064041413132</v>
       </c>
       <c r="C27" s="1">
-        <v>409.220879657331</v>
+        <v>71.690829942929</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13789,10 +13817,10 @@
         <v>40000</v>
       </c>
       <c r="B28" s="1">
-        <v>708.92522388905</v>
+        <v>925.175768022512</v>
       </c>
       <c r="C28" s="1">
-        <v>395.120260305485</v>
+        <v>51.7972419004093</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13800,10 +13828,10 @@
         <v>45000</v>
       </c>
       <c r="B29" s="1">
-        <v>672.067223117936</v>
+        <v>903.532957210655</v>
       </c>
       <c r="C29" s="1">
-        <v>384.077395845856</v>
+        <v>45.0761565368347</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13811,10 +13839,10 @@
         <v>50000</v>
       </c>
       <c r="B30" s="1">
-        <v>653.470086316332</v>
+        <v>878.161040205031</v>
       </c>
       <c r="C30" s="1">
-        <v>368.737675724208</v>
+        <v>40.5337240342835</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13822,10 +13850,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="2">
-        <v>625.549877141705</v>
+        <v>851.601358247779</v>
       </c>
       <c r="C31" s="1">
-        <v>348.236817599694</v>
+        <v>37.900394352289</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13833,10 +13861,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="2">
-        <v>595.779203437223</v>
+        <v>842.852111180821</v>
       </c>
       <c r="C32" s="1">
-        <v>340.045988527301</v>
+        <v>33.1681198478209</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13844,10 +13872,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="2">
-        <v>568.94433361182</v>
+        <v>828.007277865071</v>
       </c>
       <c r="C33" s="1">
-        <v>329.483508192213</v>
+        <v>28.6514435688519</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13855,10 +13883,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="2">
-        <v>555.420877011075</v>
+        <v>804.957718933175</v>
       </c>
       <c r="C34" s="1">
-        <v>318.155214881557</v>
+        <v>26.2826768768912</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13866,10 +13894,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="2">
-        <v>535.017634053028</v>
+        <v>796.435727874307</v>
       </c>
       <c r="C35" s="1">
-        <v>316.644567474022</v>
+        <v>16.8076122267034</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13877,10 +13905,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="2">
-        <v>509.935046854255</v>
+        <v>768.097101749826</v>
       </c>
       <c r="C36" s="1">
-        <v>313.34644314803</v>
+        <v>16.8076101074061</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13888,10 +13916,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="2">
-        <v>495.5570726249</v>
+        <v>756.076450263519</v>
       </c>
       <c r="C37" s="1">
-        <v>308.638668525951</v>
+        <v>14.4388434151175</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13899,10 +13927,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="2">
-        <v>485.286917848659</v>
+        <v>747.686399208002</v>
       </c>
       <c r="C38" s="1">
-        <v>299.89098270432</v>
+        <v>14.4388434151173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13910,10 +13938,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="2">
-        <v>472.614719651857</v>
+        <v>736.982452819482</v>
       </c>
       <c r="C39" s="1">
-        <v>288.375713223797</v>
+        <v>9.47519406723208</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13921,10 +13949,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="2">
-        <v>468.094168697147</v>
+        <v>721.259986832247</v>
       </c>
       <c r="C40" s="1">
-        <v>280.482923303247</v>
+        <v>9.47519404482132</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13988,10 +14016,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100000</v>
+        <v>100001</v>
       </c>
       <c r="C62" s="1">
-        <v>100000</v>
+        <v>100089</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14005,10 +14033,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="2">
-        <v>468.094168697147</v>
+        <v>721.259986832247</v>
       </c>
       <c r="C63" s="1">
-        <v>280.482923303247</v>
+        <v>9.47519404482131</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14022,10 +14050,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>468.094168697147</v>
+        <v>439.400943534312</v>
       </c>
       <c r="C64" s="1">
-        <v>280.482923303247</v>
+        <v>0.000127275663544423</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14039,10 +14067,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="2">
-        <v>430.922381267433</v>
+        <v>1108.33360772425</v>
       </c>
       <c r="C65" s="1">
-        <v>305.462409092636</v>
+        <v>118.438461890104</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14056,10 +14084,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="2">
-        <v>185.284752665613</v>
+        <v>698.893777662139</v>
       </c>
       <c r="C66" s="1">
-        <v>116.590673819949</v>
+        <v>0.000127275666272907</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14067,6 +14095,17 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>163.780347832958</v>
+      </c>
+      <c r="C67">
+        <v>32.457731355004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14078,10 +14117,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:H66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14105,10 +14144,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>20.9720574657065</v>
+        <v>20.935240800822</v>
       </c>
       <c r="C2" s="1">
-        <v>20.9374074028465</v>
+        <v>20.962402570621</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14116,10 +14155,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>20.922772245041</v>
+        <v>20.8680576444994</v>
       </c>
       <c r="C3" s="1">
-        <v>20.89622303015</v>
+        <v>20.8931439505737</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14127,10 +14166,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>20.9048811744854</v>
+        <v>20.8121501385233</v>
       </c>
       <c r="C4" s="1">
-        <v>20.8832665765849</v>
+        <v>20.8917351891562</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14138,10 +14177,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="2">
-        <v>20.868769249579</v>
+        <v>20.0365123044799</v>
       </c>
       <c r="C5" s="1">
-        <v>20.4974973238529</v>
+        <v>20.8241856041001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14149,10 +14188,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="2">
-        <v>20.8052270339565</v>
+        <v>19.3291512520911</v>
       </c>
       <c r="C6" s="1">
-        <v>19.4954375986072</v>
+        <v>20.5887398017943</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14160,10 +14199,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>20.7117923042575</v>
+        <v>18.8823610257168</v>
       </c>
       <c r="C7" s="1">
-        <v>17.8108915016022</v>
+        <v>20.2617583757022</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14171,10 +14210,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>20.5831117747568</v>
+        <v>18.3389452487205</v>
       </c>
       <c r="C8" s="1">
-        <v>15.8895655384775</v>
+        <v>19.67749322189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14182,10 +14221,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>20.4064623867027</v>
+        <v>17.8031813598294</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1034312253569</v>
+        <v>19.4255958322847</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14193,10 +14232,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>20.2358928525306</v>
+        <v>17.1861640243284</v>
       </c>
       <c r="C10" s="1">
-        <v>9.84184789486741</v>
+        <v>18.5680217185579</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14204,10 +14243,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>20.0156447429486</v>
+        <v>16.5807713131501</v>
       </c>
       <c r="C11" s="1">
-        <v>6.6107702257378</v>
+        <v>17.4586424571008</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14215,10 +14254,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>19.7605775496395</v>
+        <v>15.828096743915</v>
       </c>
       <c r="C12" s="1">
-        <v>4.33381449692123</v>
+        <v>16.0793352045741</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14226,10 +14265,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>19.4777148125148</v>
+        <v>14.9050652145719</v>
       </c>
       <c r="C13" s="1">
-        <v>2.66219076243648</v>
+        <v>14.3475204971995</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14237,10 +14276,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>19.184312299076</v>
+        <v>13.8909372124102</v>
       </c>
       <c r="C14" s="1">
-        <v>1.97371604852685</v>
+        <v>13.0948309542917</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14248,10 +14287,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>18.512763182116</v>
+        <v>12.079272426977</v>
       </c>
       <c r="C15" s="1">
-        <v>1.54880690606333</v>
+        <v>8.95592221582872</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14259,10 +14298,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>17.7190683019881</v>
+        <v>10.6175621887911</v>
       </c>
       <c r="C16" s="1">
-        <v>1.4967007256871</v>
+        <v>5.81413698146254</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14270,10 +14309,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>16.9165399384992</v>
+        <v>9.61379922623119</v>
       </c>
       <c r="C17" s="1">
-        <v>1.49451974414101</v>
+        <v>4.12981583676571</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14281,10 +14320,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>16.0365840699596</v>
+        <v>8.73817027372094</v>
       </c>
       <c r="C18" s="1">
-        <v>1.49317237376003</v>
+        <v>2.65875985275451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14292,10 +14331,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>15.149887858024</v>
+        <v>8.02052826135684</v>
       </c>
       <c r="C19" s="1">
-        <v>1.49061930062502</v>
+        <v>1.98916928630616</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14303,10 +14342,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>13.4492716864108</v>
+        <v>7.15483521555824</v>
       </c>
       <c r="C20" s="1">
-        <v>1.49046069089097</v>
+        <v>0.997561111813837</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14314,10 +14353,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>11.8028577885933</v>
+        <v>6.13206524935143</v>
       </c>
       <c r="C21" s="1">
-        <v>1.4536838484188</v>
+        <v>0.374267081910422</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14325,10 +14364,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>10.5055442118602</v>
+        <v>4.95208096242462</v>
       </c>
       <c r="C22" s="1">
-        <v>1.37047925663141</v>
+        <v>0.0690645151381765</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14336,10 +14375,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>9.30085991881963</v>
+        <v>3.75352494027922</v>
       </c>
       <c r="C23" s="1">
-        <v>1.33457991457051</v>
+        <v>0.0171680372397338</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14347,10 +14386,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>8.2588315052986</v>
+        <v>2.63490672420243</v>
       </c>
       <c r="C24" s="1">
-        <v>1.32258310153431</v>
+        <v>0.00131081649623581</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14358,10 +14397,10 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>6.02310262093636</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.26739688819852</v>
+        <v>1.46463268903183</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.15989535934591e-6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14369,10 +14408,10 @@
         <v>30000</v>
       </c>
       <c r="B26" s="1">
-        <v>4.44831235696685</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.19953813523286</v>
+        <v>1.1621736960402</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.11509386274633e-7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14380,10 +14419,10 @@
         <v>35000</v>
       </c>
       <c r="B27" s="1">
-        <v>3.42563991856524</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.16426875245262</v>
+        <v>0.863679911895871</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.35754972617041e-7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14391,10 +14430,10 @@
         <v>40000</v>
       </c>
       <c r="B28" s="1">
-        <v>2.47578107383633</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.08554678184014</v>
+        <v>0.491818704105377</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5.03917271785781e-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14402,10 +14441,10 @@
         <v>45000</v>
       </c>
       <c r="B29" s="1">
-        <v>1.78316168807117</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.08019405153782</v>
+        <v>0.384476860236273</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.98539812952003e-7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14413,10 +14452,10 @@
         <v>50000</v>
       </c>
       <c r="B30" s="1">
-        <v>1.31572206915059</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.00963075843614</v>
+        <v>0.35925276354842</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.94552152972005e-7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14424,10 +14463,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="2">
-        <v>1.01814218787105</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.982227438347901</v>
+        <v>0.32447814408718</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.90067088989576e-7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14435,10 +14474,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="2">
-        <v>0.862728425338376</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.975532759459168</v>
+        <v>0.311713238126003</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.84742957311823e-7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14446,10 +14485,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="2">
-        <v>0.731147933440228</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.913372602765555</v>
+        <v>0.306111331130398</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4.7717632497779e-7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14457,10 +14496,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="2">
-        <v>0.696600252179196</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.906227607667906</v>
+        <v>0.274243894060768</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4.72918689879975e-7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14468,10 +14507,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="2">
-        <v>0.67638573020135</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.8523768190071</v>
+        <v>0.267538257295873</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.70017496851937e-7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14479,10 +14518,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="2">
-        <v>0.664941609857072</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.851843269812269</v>
+        <v>0.263844962556703</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.62269583678676e-7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14490,10 +14529,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="2">
-        <v>0.658566085870451</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.81110554737842</v>
+        <v>0.259030373979903</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4.57443691885828e-7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14501,10 +14540,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="2">
-        <v>0.655266562012385</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.807687135064496</v>
+        <v>0.23989741476506</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.53570882612552e-7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14512,10 +14551,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="2">
-        <v>0.653186942674689</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.807687135064496</v>
+        <v>0.226711291258072</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.49763883381137e-7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14523,10 +14562,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="2">
-        <v>0.651227877303414</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.744419314900723</v>
+        <v>0.220396277209189</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4.46378233220912e-7</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -14586,10 +14625,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100320</v>
+        <v>100006</v>
       </c>
       <c r="C62" s="1">
-        <v>100320</v>
+        <v>100161</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14602,10 +14641,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="2">
-        <v>0.651214566642749</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.744279660526012</v>
+        <v>0.220396277209189</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4.46378233220912e-7</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14618,10 +14657,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>0.651214566642749</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.744279660526012</v>
+        <v>0.0787083589120669</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.97612967159466e-7</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14634,10 +14673,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="2">
-        <v>0.00485069153385708</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1.34047638417138</v>
+        <v>0.51331876173057</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5.29043855834743e-7</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14650,16 +14689,27 @@
         <v>10</v>
       </c>
       <c r="B66" s="2">
-        <v>0.823529149665084</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.70631356230689</v>
+        <v>0.205156591852382</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.48529341667836e-7</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>0.0984998607808534</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4.68135916473224e-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14671,10 +14721,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14699,10 +14749,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>278.540637222689</v>
+        <v>2597.52295362738</v>
       </c>
       <c r="C2" s="1">
-        <v>532.219616022656</v>
+        <v>553.688400859821</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14710,10 +14760,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>7.18267764815989</v>
+        <v>75.767427377142</v>
       </c>
       <c r="C3" s="1">
-        <v>5.68517205506138</v>
+        <v>266.263081301799</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -14724,10 +14774,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>3.06995259328969</v>
+        <v>8.69862570179392</v>
       </c>
       <c r="C4" s="1">
-        <v>1.92498087391738</v>
+        <v>54.2354615970519</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -14738,10 +14788,10 @@
         <v>500</v>
       </c>
       <c r="B5" s="2">
-        <v>0.698171757667516</v>
+        <v>0.289202959603025</v>
       </c>
       <c r="C5" s="1">
-        <v>0.913692728642571</v>
+        <v>1.46420184649222</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14753,10 +14803,10 @@
         <v>1000</v>
       </c>
       <c r="B6" s="2">
-        <v>0.350991520034867</v>
+        <v>0.181444542627693</v>
       </c>
       <c r="C6" s="1">
-        <v>0.569016046850113</v>
+        <v>0.850283703235508</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -14766,10 +14816,10 @@
         <v>1500</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28335590746812</v>
+        <v>0.12352110160388</v>
       </c>
       <c r="C7" s="1">
-        <v>0.407638728423917</v>
+        <v>0.754078067727807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14777,10 +14827,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="1">
-        <v>0.153048227447592</v>
+        <v>0.0368063687579864</v>
       </c>
       <c r="C8" s="1">
-        <v>0.334789201264261</v>
+        <v>0.722399264900423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14788,10 +14838,10 @@
         <v>2500</v>
       </c>
       <c r="B9" s="1">
-        <v>0.142022085030349</v>
+        <v>0.0349041398448015</v>
       </c>
       <c r="C9" s="1">
-        <v>0.249814687161766</v>
+        <v>0.595626776517332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14799,10 +14849,10 @@
         <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>0.13382158376608</v>
+        <v>0.0336682107065496</v>
       </c>
       <c r="C10" s="1">
-        <v>0.181996622582329</v>
+        <v>0.492720089031585</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14810,10 +14860,10 @@
         <v>3500</v>
       </c>
       <c r="B11" s="1">
-        <v>0.11462859967788</v>
+        <v>0.0178276980662969</v>
       </c>
       <c r="C11" s="1">
-        <v>0.1781316708985</v>
+        <v>0.476461567437192</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14821,10 +14871,10 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>0.114451922524672</v>
+        <v>0.0025695276197833</v>
       </c>
       <c r="C12" s="1">
-        <v>0.120361066930048</v>
+        <v>0.46382401882571</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14832,10 +14882,10 @@
         <v>4500</v>
       </c>
       <c r="B13" s="1">
-        <v>0.101716942506558</v>
+        <v>0.00251375444775225</v>
       </c>
       <c r="C13" s="1">
-        <v>0.11402284898429</v>
+        <v>0.454732151409009</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14843,10 +14893,10 @@
         <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0997415465219874</v>
+        <v>0.00246761824732803</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0974879122165328</v>
+        <v>0.446174717971786</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14854,10 +14904,10 @@
         <v>6000</v>
       </c>
       <c r="B15" s="1">
-        <v>0.092191902466809</v>
+        <v>0.00215834946236928</v>
       </c>
       <c r="C15" s="1">
-        <v>0.0737452305008883</v>
+        <v>0.427015823929881</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14865,10 +14915,10 @@
         <v>7000</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0634277993836967</v>
+        <v>0.00185180445837139</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0411563111690723</v>
+        <v>0.411677815546324</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14876,10 +14926,10 @@
         <v>8000</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0560471373170448</v>
+        <v>0.00174818616048768</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0317850865319493</v>
+        <v>0.400765838481891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14887,10 +14937,10 @@
         <v>9000</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0560471373170448</v>
+        <v>0.000434265871212907</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0313878430732181</v>
+        <v>0.372578767339579</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14898,10 +14948,10 @@
         <v>10000</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0554373808930189</v>
+        <v>0.000399465502859024</v>
       </c>
       <c r="C19" s="1">
-        <v>0.0115258874515185</v>
+        <v>0.364436505304294</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14909,10 +14959,10 @@
         <v>12000</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0304632427843863</v>
+        <v>0.000209052346865029</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0103828664933683</v>
+        <v>0.35370141843118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14920,10 +14970,10 @@
         <v>14000</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0281859896459616</v>
+        <v>0.000142836158107518</v>
       </c>
       <c r="C21" s="1">
-        <v>0.00891890562408375</v>
+        <v>0.165580615303446</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14931,10 +14981,10 @@
         <v>16000</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0270690777643001</v>
+        <v>0.000134925924784096</v>
       </c>
       <c r="C22" s="1">
-        <v>0.00875435157803008</v>
+        <v>0.156766915737381</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14942,10 +14992,10 @@
         <v>18000</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0268672815954269</v>
+        <v>0.000134522549577788</v>
       </c>
       <c r="C23" s="1">
-        <v>0.00604447121486247</v>
+        <v>0.153564445173277</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14953,10 +15003,10 @@
         <v>20000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0251644577182244</v>
+        <v>0.000122354451487</v>
       </c>
       <c r="C24" s="1">
-        <v>0.00509519584072996</v>
+        <v>0.123815017997723</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14964,32 +15014,32 @@
         <v>25000</v>
       </c>
       <c r="B25" s="1">
-        <v>0.024281644093379</v>
+        <v>0.000107942464580594</v>
       </c>
       <c r="C25" s="1">
-        <v>0.00426995247868278</v>
+        <v>0.0970360812400215</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>30000</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.0233901879914954</v>
+      <c r="B26" s="2">
+        <v>7.57529026608859e-5</v>
       </c>
       <c r="C26" s="1">
-        <v>0.00310540050405335</v>
+        <v>0.0767433478829648</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>35000</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.023365910809834</v>
+      <c r="B27" s="2">
+        <v>6.89094489991924e-5</v>
       </c>
       <c r="C27" s="1">
-        <v>0.00208124786280879</v>
+        <v>0.0610343471841507</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -14997,11 +15047,11 @@
       <c r="A28" s="1">
         <v>40000</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.0231472705060308</v>
+      <c r="B28" s="2">
+        <v>5.9901119368447e-5</v>
       </c>
       <c r="C28" s="1">
-        <v>0.00200036539377556</v>
+        <v>0.0459958430107535</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -15009,11 +15059,11 @@
       <c r="A29" s="1">
         <v>45000</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.0228540911767478</v>
+      <c r="B29" s="2">
+        <v>5.20454755821881e-5</v>
       </c>
       <c r="C29" s="1">
-        <v>0.00100927905315727</v>
+        <v>0.0335380159520354</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -15021,11 +15071,11 @@
       <c r="A30" s="1">
         <v>50000</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.0227512567312438</v>
+      <c r="B30" s="2">
+        <v>4.23916547858892e-5</v>
       </c>
       <c r="C30" s="1">
-        <v>0.000985142821608248</v>
+        <v>0.018309897736917</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -15034,10 +15084,10 @@
         <v>55000</v>
       </c>
       <c r="B31" s="2">
-        <v>0.0227357044058512</v>
+        <v>3.77247050520568e-5</v>
       </c>
       <c r="C31" s="1">
-        <v>0.00080860127135773</v>
+        <v>0.0183063299498359</v>
       </c>
       <c r="K31" s="3"/>
     </row>
@@ -15046,10 +15096,10 @@
         <v>60000</v>
       </c>
       <c r="B32" s="2">
-        <v>0.0227006429572573</v>
+        <v>3.48897054491049e-5</v>
       </c>
       <c r="C32" s="1">
-        <v>0.000585890539301531</v>
+        <v>0.00307837103246265</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -15059,10 +15109,10 @@
         <v>65000</v>
       </c>
       <c r="B33" s="2">
-        <v>0.0227006429572573</v>
+        <v>3.32677755700553e-5</v>
       </c>
       <c r="C33" s="1">
-        <v>0.000494042431269608</v>
+        <v>0.00307466501020762</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -15072,10 +15122,10 @@
         <v>70000</v>
       </c>
       <c r="B34" s="2">
-        <v>0.0226741344891562</v>
+        <v>3.237257370496e-5</v>
       </c>
       <c r="C34" s="1">
-        <v>0.000480809039745232</v>
+        <v>0.00307466450134901</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -15085,10 +15135,10 @@
         <v>75000</v>
       </c>
       <c r="B35" s="2">
-        <v>0.0226741344891562</v>
+        <v>3.15107781354346e-5</v>
       </c>
       <c r="C35" s="1">
-        <v>0.00044873289657446</v>
+        <v>0.00307466173965469</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -15098,10 +15148,10 @@
         <v>80000</v>
       </c>
       <c r="B36" s="2">
-        <v>0.0226739044255143</v>
+        <v>2.97678231680345e-5</v>
       </c>
       <c r="C36" s="1">
-        <v>0.000400772394705883</v>
+        <v>0.00307466164228795</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -15111,10 +15161,10 @@
         <v>85000</v>
       </c>
       <c r="B37" s="2">
-        <v>0.0226739044255143</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.000400772394705883</v>
+        <v>2.57157386417681e-5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.12660991449767e-5</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -15124,10 +15174,10 @@
         <v>90000</v>
       </c>
       <c r="B38" s="2">
-        <v>0.0226739044255143</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.000389836563451008</v>
+        <v>2.47867149905036e-5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.63529461033841e-8</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -15137,10 +15187,10 @@
         <v>95000</v>
       </c>
       <c r="B39" s="2">
-        <v>0.0226634056490624</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.000383723668423885</v>
+        <v>2.47867149905036e-5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.73930043082258e-10</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -15150,10 +15200,10 @@
         <v>100000</v>
       </c>
       <c r="B40" s="2">
-        <v>0.0226582962189574</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.000117880494477845</v>
+        <v>2.45062962711605e-5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3.68545197155092e-10</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -15220,10 +15270,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>100022</v>
+        <v>100002</v>
       </c>
       <c r="C62" s="1">
-        <v>100022</v>
+        <v>100008</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -15237,10 +15287,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="2">
-        <v>0.0226582962189574</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.000117880494477845</v>
+        <v>2.45062962711605e-5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.68545197155092e-10</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -15254,10 +15304,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>0.0226582962189574</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.000117880494477845</v>
+        <v>2.06481104257097e-6</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6.39202036449234e-13</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -15271,10 +15321,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="2">
-        <v>7.75262956665232e-5</v>
+        <v>9.19051194382575e-5</v>
       </c>
       <c r="C65" s="2">
-        <v>8.91940497079451e-5</v>
+        <v>6.20205989169236e-9</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -15288,10 +15338,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="2">
-        <v>0.120235376596346</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.00011143324462066</v>
+        <v>1.47957266325702e-5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8.2111955880238e-11</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -15301,9 +15351,15 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2.27227121460466e-5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.07895860795896e-9</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -15312,9 +15368,7 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -15324,6 +15378,11 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
